--- a/biology/Zoologie/Hvalfangstmuseet/Hvalfangstmuseet.xlsx
+++ b/biology/Zoologie/Hvalfangstmuseet/Hvalfangstmuseet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Hvalfangstmuseet ou Musée de la chasse à la baleine est un musée consacré à la chasse à la baleine situé à Sandefjord, en Norvège. C'est le seul musée de ce type en Europe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Hvalfangstmuseet ou Musée de la chasse à la baleine est un musée consacré à la chasse à la baleine situé à Sandefjord, en Norvège. C'est le seul musée de ce type en Europe.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée de Sandefjord fut inauguré grâce à une donation du Consul Lars Christensen, fils de l'armateur et baleinier Christen Christensen ; son nom complet est d'ailleurs Commander Christen Christensen's Whaling Museum. Ouvert en 1917, il fut l'un des premiers musées du pays, proposant notamment des informations concernant l'Antarctique et la chasse à la baleine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée de Sandefjord fut inauguré grâce à une donation du Consul Lars Christensen, fils de l'armateur et baleinier Christen Christensen ; son nom complet est d'ailleurs Commander Christen Christensen's Whaling Museum. Ouvert en 1917, il fut l'un des premiers musées du pays, proposant notamment des informations concernant l'Antarctique et la chasse à la baleine.
 Le musée a été agrandi en 1981.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée abrite une collection de 150 000 photographies dont 30 000 liées à la pêche à la baleine ainsi qu'une bibliothèque dédiée. Il abrite aussi un baleinier de 1950, le Southern Actor, restauré et ouvert au public[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée abrite une collection de 150 000 photographies dont 30 000 liées à la pêche à la baleine ainsi qu'une bibliothèque dédiée. Il abrite aussi un baleinier de 1950, le Southern Actor, restauré et ouvert au public.
 </t>
         </is>
       </c>
